--- a/data/trans_camb/P12A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,44</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 8,31</t>
+          <t>-7,56; 10,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 15,07</t>
+          <t>-1,4; 15,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 19,4</t>
+          <t>-11,74; 8,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 8,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 10,95</t>
+          <t>-11,89; 6,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,66</t>
+          <t>-8,46; 8,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,48</t>
+          <t>-9,52; 11,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 12,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 5,5</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 9,9</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 7,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>-11,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,22%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 61,58</t>
+          <t>-33,29; 94,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 118,05</t>
+          <t>-7,25; 135,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 142,09</t>
+          <t>-51,58; 71,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 49,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 54,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 60,73</t>
+          <t>-37,87; 34,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 36,66</t>
+          <t>-27,36; 45,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 52,89</t>
+          <t>-31,86; 57,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 69,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,66; 31,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 56,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,31; 38,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,32 +1016,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +1051,42 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 5,57</t>
+          <t>-7,6; 5,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 6,96</t>
+          <t>-6,63; 5,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 10,83</t>
+          <t>-7,04; 8,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 8,53</t>
+          <t>-7,03; 3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,75</t>
+          <t>-6,26; 3,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,6</t>
+          <t>-0,74; 10,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 2,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 3,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 7,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-5,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>-10,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,01%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 44,66</t>
+          <t>-35,61; 41,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 54,7</t>
+          <t>-32,52; 42,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 87,72</t>
+          <t>-36,75; 62,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 19,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 24,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 67,84</t>
+          <t>-39,36; 25,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 20,72</t>
+          <t>-34,29; 33,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 26,88</t>
+          <t>-6,3; 92,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 65,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-29,06; 22,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-25,93; 26,88</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-11,71; 56,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,18</t>
+          <t>-3,38; 5,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 3,49</t>
+          <t>-5,03; 4,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 11,96</t>
+          <t>-1,3; 9,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 8,12</t>
+          <t>-4,73; 4,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,85</t>
+          <t>-4,76; 3,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,12</t>
+          <t>-4,82; 4,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 3,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 2,83</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 5,9</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>53,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 86,68</t>
+          <t>-32,37; 102,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 65,26</t>
+          <t>-44,21; 74,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 191,05</t>
+          <t>-13,99; 157,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 33,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 36,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 92,36</t>
+          <t>-36,47; 62,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 38,57</t>
+          <t>-37,26; 52,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 27,23</t>
+          <t>-38,34; 62,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 101,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-23,19; 53,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-29,05; 39,28</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 80,3</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>1,02</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>6,37</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,52</t>
+          <t>-3,28; 7,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,22</t>
+          <t>-2,7; 7,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,0</t>
+          <t>-5,41; 5,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,12</t>
+          <t>-2,6; 9,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 5,13</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 7,24</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 29,19</t>
+          <t>-23,3; 70,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 48,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,29; 103,45</t>
+          <t>-20,22; 77,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 18,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 22,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,27; 59,26</t>
+          <t>-29,41; 38,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 18,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 23,69</t>
+          <t>-15,36; 64,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,01; 68,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-15,9; 41,6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 56,29</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 4,64</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 5,66</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 5,31</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 1,44</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 2,93</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 6,37</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 2,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 3,12</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 4,79</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-7,18%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 39,4</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 48,96</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-10,19; 44,47</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-22,25; 9,87</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 21,15</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 44,46</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 16,03</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 22,89</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 35,81</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
